--- a/data/trans_bre/P1403-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1403-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.778544269048127</v>
+        <v>-4.735733242758846</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.597266197548317</v>
+        <v>-1.933554437925979</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.620529571653723</v>
+        <v>-5.272687277301812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.630509970238167</v>
+        <v>-9.061822107509562</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.293003642729956</v>
+        <v>-0.3012445298723953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1243043399193186</v>
+        <v>-0.1514340720629481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3867995445877889</v>
+        <v>-0.3733459518944253</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3402100963878824</v>
+        <v>-0.3463832944561376</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.152843845316097</v>
+        <v>7.465452986521639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.881912287132387</v>
+        <v>10.26949745007725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.514574695211969</v>
+        <v>5.659081630927969</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.218237748943717</v>
+        <v>1.882274942196657</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6416884484604038</v>
+        <v>0.6764695097699198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.090413790423</v>
+        <v>1.185000585617718</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6063841377788182</v>
+        <v>0.6459508353143686</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1179783089587864</v>
+        <v>0.1067581091654689</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.3568661308717217</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.03519351127651495</v>
+        <v>-0.03519351127651494</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.650132357479525</v>
+        <v>3.994958242618103</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6547194306097381</v>
+        <v>-0.9942009648253978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9267602807668943</v>
+        <v>0.6054727843174371</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.078309232180714</v>
+        <v>-4.81064526497017</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3017619798037009</v>
+        <v>0.3365097928302806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03029484961185535</v>
+        <v>-0.0587045840118051</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04797854114645043</v>
+        <v>0.03439817770747042</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2640261379169551</v>
+        <v>-0.2522755065727613</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.48053527192353</v>
+        <v>12.62159938797254</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.054880873641261</v>
+        <v>8.808128337080833</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.76262423962775</v>
+        <v>10.62874306443693</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.716557464481928</v>
+        <v>3.758067415826451</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.6019099489106</v>
+        <v>1.60499894751287</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6945363436104498</v>
+        <v>0.6541758983284423</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7436472298041727</v>
+        <v>0.74445546958779</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.27540733542386</v>
+        <v>0.2772486886872587</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.02377113328921772</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.09333807594375509</v>
+        <v>0.09333807594375507</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.138198268897181</v>
+        <v>0.2693499992768711</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.914342226483098</v>
+        <v>-1.973916244910784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.962234792725443</v>
+        <v>-5.506217850532776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.258823246078436</v>
+        <v>-3.112499963745678</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06737866763358077</v>
+        <v>0.01217277609479256</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1296596297459763</v>
+        <v>-0.09241559526387878</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2809604121935396</v>
+        <v>-0.31724828254555</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1444062779224533</v>
+        <v>-0.1394627803673332</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.30766276533686</v>
+        <v>12.84163505114038</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.29738179864039</v>
+        <v>11.31200090479271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.250078710426532</v>
+        <v>6.299825910427144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.679193393773028</v>
+        <v>6.848474002287251</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.094941412707688</v>
+        <v>1.098746007210087</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6530852458843204</v>
+        <v>0.7482083202209017</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5200882095272054</v>
+        <v>0.529666205096973</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3727804962537587</v>
+        <v>0.3942401445252752</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7219135157567682</v>
+        <v>-1.713231701351876</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.179286395255718</v>
+        <v>0.6197453425166083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.304997983351897</v>
+        <v>-1.944504346776531</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.407850765795763</v>
+        <v>-2.305305121332469</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04918706891815918</v>
+        <v>-0.1027939768849523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04984808041993484</v>
+        <v>0.02903412475404658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1225458618466135</v>
+        <v>-0.0992491513597796</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1057630711084473</v>
+        <v>-0.09851150116813871</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.506951938046026</v>
+        <v>9.512136911029183</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.38807870447205</v>
+        <v>13.2167313390034</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.165591905806835</v>
+        <v>9.24665969863722</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.507071800532412</v>
+        <v>8.202210176697774</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7984992510879699</v>
+        <v>0.7816278147210212</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8712387087076313</v>
+        <v>0.9214563294561194</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6299455698348871</v>
+        <v>0.6614875503646916</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5544899740635248</v>
+        <v>0.512226924250343</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.465743892024657</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.149736380476283</v>
+        <v>5.149736380476286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8913345864524539</v>
@@ -1049,7 +1049,7 @@
         <v>0.5978376779978916</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2279762892432393</v>
+        <v>0.2279762892432394</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9025101834818425</v>
+        <v>0.8724020248358244</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.038023281438313</v>
+        <v>3.505971658738836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3103269977199849</v>
+        <v>0.4970247462923132</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.011688335906477</v>
+        <v>-0.6408045658080449</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08066549834459834</v>
+        <v>0.04230414062998809</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1250594897669404</v>
+        <v>0.18304611680102</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.009885795974788093</v>
+        <v>0.01270544034398869</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0411527728758859</v>
+        <v>-0.02430629072005985</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.24142329606795</v>
+        <v>13.78566477898998</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.3491370955211</v>
+        <v>19.45644293052766</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.95720001200121</v>
+        <v>14.65388946914362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.28187372512044</v>
+        <v>11.35072831518145</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.433767442167777</v>
+        <v>2.615970232269028</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.660568285825764</v>
+        <v>1.748425035100821</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.577831885369635</v>
+        <v>1.619295683316605</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5937580640188108</v>
+        <v>0.6005301383246551</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>3.567608002077546</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-2.867357460280545</v>
+        <v>-2.86735746028054</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2512660383650616</v>
@@ -1149,7 +1149,7 @@
         <v>0.2591791894611636</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1077017728575402</v>
+        <v>-0.1077017728575401</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.569511596757426</v>
+        <v>-2.60074130468605</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.805380497042458</v>
+        <v>-7.44017541688176</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.628173746724755</v>
+        <v>-3.048391835613291</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.727836753003785</v>
+        <v>-8.350839053555935</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1421661811814971</v>
+        <v>-0.1527714349741858</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3139996463483326</v>
+        <v>-0.2782230088437215</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1643413039999292</v>
+        <v>-0.1751927977319179</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2954094197601588</v>
+        <v>-0.2815845678637686</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.28430666256456</v>
+        <v>10.734221422026</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.490461961116964</v>
+        <v>6.233308592132663</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.726322090417099</v>
+        <v>9.191954039597148</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.508495858378898</v>
+        <v>2.598148571942987</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8550763358144977</v>
+        <v>0.8820217516856408</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3378176157491002</v>
+        <v>0.3203771829789653</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8640252880633694</v>
+        <v>0.8423643224227551</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1019769042252152</v>
+        <v>0.1157260319438569</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.1279062674999387</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.971782666429743</v>
+        <v>2.971782666429734</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2146503339107057</v>
@@ -1249,7 +1249,7 @@
         <v>-0.008882974893481603</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1622096604763374</v>
+        <v>0.1622096604763369</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.302555158572938</v>
+        <v>-0.7631316002246588</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.222547864475858</v>
+        <v>-0.321682337526504</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.969693229267364</v>
+        <v>-4.032711015964555</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.107112699339913</v>
+        <v>-1.059398983052947</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.08418621308853239</v>
+        <v>-0.05195796723622858</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.07068489168538997</v>
+        <v>-0.01528341610271065</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.248279708720947</v>
+        <v>-0.2502359179431803</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05824993453038023</v>
+        <v>-0.05203814812159525</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.076174579425558</v>
+        <v>7.101294473173509</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.477488560023247</v>
+        <v>8.659398991449274</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.931170262429951</v>
+        <v>4.066080084882719</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.76844968459066</v>
+        <v>6.553372471676408</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5790715671081783</v>
+        <v>0.5694038624040382</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5096145881725803</v>
+        <v>0.5046629307084251</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3317355200424839</v>
+        <v>0.3235799773884395</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4173283970823082</v>
+        <v>0.4100533814483633</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.589928216788656</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.057972605758531</v>
+        <v>4.057972605758536</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05219564284639625</v>
@@ -1349,7 +1349,7 @@
         <v>0.1556963631686004</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2417013676237852</v>
+        <v>0.2417013676237855</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.800958928837221</v>
+        <v>-2.748240355361613</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.522544580106671</v>
+        <v>-1.599351422916556</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.463101560559371</v>
+        <v>-1.408232187975366</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4563943730326917</v>
+        <v>0.8187335948597977</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.184586840434117</v>
+        <v>-0.1806373656408544</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09263366138941974</v>
+        <v>-0.1026561800209462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07864294200951776</v>
+        <v>-0.07269930534100399</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02321344300564359</v>
+        <v>0.04351204071291688</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.133100957782735</v>
+        <v>4.0927613131835</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.000970310903716</v>
+        <v>5.812828708843078</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.813083954563762</v>
+        <v>6.323862055175175</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.348476926216476</v>
+        <v>7.494107359073047</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.355878751833291</v>
+        <v>0.3396849786623751</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4911234209494029</v>
+        <v>0.4518239341487111</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4636993395583861</v>
+        <v>0.4399759476589816</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4805294383495663</v>
+        <v>0.4980370102478752</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>0.1722378673115894</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.09399747139938575</v>
+        <v>0.09399747139938576</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.202730591219993</v>
+        <v>2.169276757580453</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.056481225639992</v>
+        <v>2.159755845677264</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7445226211032067</v>
+        <v>0.7062115568130776</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2400833136683611</v>
+        <v>0.2172202420744843</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1563005771536803</v>
+        <v>0.1533317968438858</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1146978212604576</v>
+        <v>0.122012455989612</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04697340740355318</v>
+        <v>0.04514305995163926</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.01233257015255432</v>
+        <v>0.01049610223744662</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.795334174303458</v>
+        <v>5.574106773837838</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.989172241790971</v>
+        <v>5.99417508352875</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.382938103504975</v>
+        <v>4.245946053473901</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.598245058241568</v>
+        <v>3.489670092871856</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4719192193883515</v>
+        <v>0.4590478550042633</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3787898682834883</v>
+        <v>0.3770538351157062</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3069626436739726</v>
+        <v>0.2945475891325661</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2015208847643288</v>
+        <v>0.19105675621932</v>
       </c>
     </row>
     <row r="31">
